--- a/lab3/Nota/NotaLab3.xlsx
+++ b/lab3/Nota/NotaLab3.xlsx
@@ -384,11 +384,12 @@
     <numFmt numFmtId="175" formatCode="General"/>
     <numFmt numFmtId="176" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -500,6 +501,12 @@
     </font>
     <font>
       <u val="single"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -813,456 +820,464 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="115">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="12" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="10" fillId="12" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="13" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="9" fillId="13" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="13" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="9" fillId="13" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="13" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="9" fillId="13" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="9" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="12" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="11" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="9" fillId="11" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="14" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="15" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="15" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="15" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="16" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="174" fontId="4" fillId="15" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="15" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="15" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="15" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="12" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="15" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="16" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="13" fillId="17" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="13" fillId="17" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="14" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="15" fillId="16" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="16" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="15" fillId="16" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="15" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="14" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="15" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="15" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="15" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="16" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="174" fontId="4" fillId="15" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="15" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="15" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="15" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="12" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="15" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="16" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="13" fillId="17" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="13" fillId="17" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="7" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="15" fillId="16" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="16" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="15" fillId="16" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="15" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="5" fillId="18" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="18" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="18" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="18" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="19" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="19" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="12" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="18" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="18" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="20" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="21" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="18" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="18" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="22" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="14" fillId="16" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="16" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="14" fillId="16" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="18" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="175" fontId="5" fillId="18" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="18" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="5" fillId="18" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="5" fillId="18" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="19" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="19" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="12" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="18" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="18" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="20" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="21" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="18" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="18" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="22" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="16" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="16" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="16" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="18" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="14" fillId="23" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="23" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="14" fillId="23" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="23" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="14" fillId="18" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="14" fillId="24" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="24" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="14" fillId="18" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="24" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="24" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="14" fillId="23" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="23" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="14" fillId="23" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="23" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="14" fillId="18" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="18" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="14" fillId="18" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="18" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="14" fillId="24" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="24" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="14" fillId="24" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="24" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="14" fillId="7" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="18" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="14" fillId="7" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="18" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="14" fillId="7" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="14" fillId="7" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1437,9 +1452,6 @@
           <cell r="B5" t="str">
             <v>GM</v>
           </cell>
-          <cell r="C5" t="str">
-            <v>21.452.532-1</v>
-          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3"/>
@@ -1579,1050 +1591,1049 @@
   <dimension ref="A1:BW1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="10.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="8.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="14.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="0" width="30.38"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="75" min="74" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="10.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="8.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="14.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="1" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="1" width="30.38"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="75" min="74" style="1" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="3" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="6" t="s">
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="7" t="s">
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="7"/>
-      <c r="AR1" s="7"/>
-      <c r="AS1" s="7"/>
-      <c r="AT1" s="7"/>
-      <c r="AU1" s="7"/>
-      <c r="AV1" s="7"/>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="7"/>
-      <c r="AY1" s="7"/>
-      <c r="AZ1" s="7"/>
-      <c r="BA1" s="7"/>
-      <c r="BB1" s="7"/>
-      <c r="BC1" s="7"/>
-      <c r="BD1" s="7"/>
-      <c r="BE1" s="7"/>
-      <c r="BF1" s="7"/>
-      <c r="BG1" s="7"/>
-      <c r="BH1" s="7"/>
-      <c r="BI1" s="7"/>
-      <c r="BJ1" s="7"/>
-      <c r="BK1" s="7"/>
-      <c r="BL1" s="7"/>
-      <c r="BM1" s="8"/>
-      <c r="BN1" s="9"/>
-      <c r="BO1" s="10" t="s">
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="8"/>
+      <c r="BA1" s="8"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="9"/>
+      <c r="BN1" s="10"/>
+      <c r="BO1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="BP1" s="10"/>
-      <c r="BQ1" s="10"/>
-      <c r="BR1" s="10"/>
-      <c r="BS1" s="11"/>
-      <c r="BT1" s="12"/>
-      <c r="BV1" s="12"/>
-      <c r="BW1" s="13"/>
+      <c r="BP1" s="11"/>
+      <c r="BQ1" s="11"/>
+      <c r="BR1" s="11"/>
+      <c r="BS1" s="12"/>
+      <c r="BT1" s="13"/>
+      <c r="BV1" s="13"/>
+      <c r="BW1" s="14"/>
     </row>
     <row r="2" customFormat="false" ht="97.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="14" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="19" t="s">
+      <c r="O2" s="4"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="S2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="U2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="V2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="21" t="s">
+      <c r="W2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="22" t="s">
+      <c r="X2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="Y2" s="22" t="s">
+      <c r="Y2" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="Z2" s="22" t="s">
+      <c r="Z2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="AA2" s="22" t="s">
+      <c r="AA2" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="23" t="s">
+      <c r="AB2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="AC2" s="24" t="s">
+      <c r="AC2" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="AD2" s="24" t="s">
+      <c r="AD2" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AE2" s="24" t="s">
+      <c r="AE2" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="AF2" s="25" t="s">
+      <c r="AF2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="AG2" s="26" t="s">
+      <c r="AG2" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="AH2" s="27" t="s">
+      <c r="AH2" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="AI2" s="28" t="s">
+      <c r="AI2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AJ2" s="29" t="s">
+      <c r="AJ2" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AK2" s="30" t="s">
+      <c r="AK2" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="AL2" s="29" t="s">
+      <c r="AL2" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="AM2" s="29" t="s">
+      <c r="AM2" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="AN2" s="29" t="s">
+      <c r="AN2" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AO2" s="29" t="s">
+      <c r="AO2" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="AP2" s="29" t="s">
+      <c r="AP2" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="AQ2" s="31" t="s">
+      <c r="AQ2" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="AR2" s="31" t="s">
+      <c r="AR2" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="AS2" s="31" t="s">
+      <c r="AS2" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="AT2" s="31" t="s">
+      <c r="AT2" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="AU2" s="31" t="s">
+      <c r="AU2" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="AV2" s="31" t="s">
+      <c r="AV2" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="AW2" s="31" t="s">
+      <c r="AW2" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="AX2" s="31" t="s">
+      <c r="AX2" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="AY2" s="31" t="s">
+      <c r="AY2" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="AZ2" s="31" t="s">
+      <c r="AZ2" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="BA2" s="31" t="s">
+      <c r="BA2" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="BB2" s="31" t="s">
+      <c r="BB2" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="BC2" s="31" t="s">
+      <c r="BC2" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="BD2" s="31" t="s">
+      <c r="BD2" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="BE2" s="31" t="s">
+      <c r="BE2" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="BF2" s="31" t="s">
+      <c r="BF2" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="BG2" s="31" t="s">
+      <c r="BG2" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="BH2" s="31" t="s">
+      <c r="BH2" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="BI2" s="32" t="s">
+      <c r="BI2" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="BJ2" s="31" t="s">
+      <c r="BJ2" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="BK2" s="31" t="s">
+      <c r="BK2" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="BL2" s="31" t="s">
+      <c r="BL2" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="BM2" s="33" t="s">
+      <c r="BM2" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="BN2" s="34" t="s">
+      <c r="BN2" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="BO2" s="35" t="s">
+      <c r="BO2" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="BP2" s="36" t="s">
+      <c r="BP2" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="BQ2" s="37" t="s">
+      <c r="BQ2" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="BR2" s="38" t="s">
+      <c r="BR2" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="BS2" s="39" t="s">
+      <c r="BS2" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="BT2" s="40" t="s">
+      <c r="BT2" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="BV2" s="41" t="s">
+      <c r="BV2" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="BW2" s="42" t="s">
+      <c r="BW2" s="43" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="44" t="n">
+      <c r="D3" s="45" t="n">
         <v>0.05</v>
       </c>
-      <c r="E3" s="44" t="n">
+      <c r="E3" s="45" t="n">
         <v>0.05</v>
       </c>
-      <c r="F3" s="44" t="n">
+      <c r="F3" s="45" t="n">
         <v>0.05</v>
       </c>
-      <c r="G3" s="44" t="n">
+      <c r="G3" s="45" t="n">
         <v>0.1</v>
       </c>
-      <c r="H3" s="44" t="n">
+      <c r="H3" s="45" t="n">
         <v>0.3</v>
       </c>
-      <c r="I3" s="44" t="n">
+      <c r="I3" s="45" t="n">
         <v>0.1</v>
       </c>
-      <c r="J3" s="44" t="n">
+      <c r="J3" s="45" t="n">
         <v>0.1</v>
       </c>
-      <c r="K3" s="44" t="n">
+      <c r="K3" s="45" t="n">
         <v>0.1</v>
       </c>
-      <c r="L3" s="44" t="n">
+      <c r="L3" s="45" t="n">
         <v>0.1</v>
       </c>
-      <c r="M3" s="45" t="n">
+      <c r="M3" s="46" t="n">
         <v>0.025</v>
       </c>
-      <c r="N3" s="46" t="n">
+      <c r="N3" s="47" t="n">
         <v>0.025</v>
       </c>
-      <c r="O3" s="47" t="n">
+      <c r="O3" s="48" t="n">
         <f aca="false">SUM(D3:N3)</f>
         <v>1</v>
       </c>
-      <c r="P3" s="48" t="n">
+      <c r="P3" s="49" t="n">
         <f aca="false">(1+6*O3)*1</f>
         <v>7</v>
       </c>
-      <c r="Q3" s="49" t="n">
+      <c r="Q3" s="50" t="n">
         <v>36526</v>
       </c>
-      <c r="R3" s="49" t="n">
+      <c r="R3" s="50" t="n">
         <v>36540</v>
       </c>
-      <c r="S3" s="50" t="n">
+      <c r="S3" s="51" t="n">
         <v>10</v>
       </c>
-      <c r="T3" s="51" t="n">
+      <c r="T3" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="U3" s="52" t="n">
+      <c r="U3" s="53" t="n">
         <f aca="false">2.5/2</f>
         <v>1.25</v>
       </c>
-      <c r="V3" s="52" t="n">
+      <c r="V3" s="53" t="n">
         <f aca="false">2.5/2</f>
         <v>1.25</v>
       </c>
-      <c r="W3" s="53" t="n">
+      <c r="W3" s="54" t="n">
         <f aca="false">U3+V3</f>
         <v>2.5</v>
       </c>
-      <c r="X3" s="54" t="s">
+      <c r="X3" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="Y3" s="54" t="s">
+      <c r="Y3" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="Z3" s="54" t="s">
+      <c r="Z3" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="AA3" s="54" t="s">
+      <c r="AA3" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="AB3" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="55" t="n">
+      <c r="AB3" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="56" t="n">
         <v>1.5</v>
       </c>
-      <c r="AE3" s="55" t="n">
+      <c r="AE3" s="56" t="n">
         <v>1.5</v>
       </c>
-      <c r="AF3" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="56" t="s">
+      <c r="AF3" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="AH3" s="57" t="n">
+      <c r="AH3" s="58" t="n">
         <f aca="false">SUM(AB3,AC3,AD3,AE3,AF3)</f>
         <v>6</v>
       </c>
-      <c r="AI3" s="58" t="n">
+      <c r="AI3" s="59" t="n">
         <f aca="false">AH3+1</f>
         <v>7</v>
       </c>
-      <c r="AJ3" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="59" t="n">
+      <c r="AJ3" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="60" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM3" s="59" t="n">
+      <c r="AM3" s="60" t="n">
         <v>0.1</v>
       </c>
-      <c r="AN3" s="59" t="n">
+      <c r="AN3" s="60" t="n">
         <v>0.1</v>
       </c>
-      <c r="AO3" s="59" t="n">
+      <c r="AO3" s="60" t="n">
         <v>0.1</v>
       </c>
-      <c r="AP3" s="59" t="n">
+      <c r="AP3" s="60" t="n">
         <v>0.1</v>
       </c>
-      <c r="AQ3" s="59" t="n">
+      <c r="AQ3" s="60" t="n">
         <v>0.2</v>
       </c>
-      <c r="AR3" s="59" t="n">
+      <c r="AR3" s="60" t="n">
         <v>0.1</v>
       </c>
-      <c r="AS3" s="59" t="n">
+      <c r="AS3" s="60" t="n">
         <v>0.3</v>
       </c>
-      <c r="AT3" s="59" t="n">
+      <c r="AT3" s="60" t="n">
         <v>0.3</v>
       </c>
-      <c r="AU3" s="59" t="n">
+      <c r="AU3" s="60" t="n">
         <v>0.1</v>
       </c>
-      <c r="AV3" s="59" t="n">
+      <c r="AV3" s="60" t="n">
         <v>0.1</v>
       </c>
-      <c r="AW3" s="59" t="n">
+      <c r="AW3" s="60" t="n">
         <v>0.1</v>
       </c>
-      <c r="AX3" s="59" t="n">
+      <c r="AX3" s="60" t="n">
         <v>0.1</v>
       </c>
-      <c r="AY3" s="59" t="n">
+      <c r="AY3" s="60" t="n">
         <v>0.1</v>
       </c>
-      <c r="AZ3" s="59" t="n">
+      <c r="AZ3" s="60" t="n">
         <v>0.1</v>
       </c>
-      <c r="BA3" s="59" t="n">
+      <c r="BA3" s="60" t="n">
         <v>0.1</v>
       </c>
-      <c r="BB3" s="59" t="n">
+      <c r="BB3" s="60" t="n">
         <v>0.1</v>
       </c>
-      <c r="BC3" s="59" t="n">
+      <c r="BC3" s="60" t="n">
         <v>0.1</v>
       </c>
-      <c r="BD3" s="59" t="n">
+      <c r="BD3" s="60" t="n">
         <v>0.2</v>
       </c>
-      <c r="BE3" s="59" t="n">
+      <c r="BE3" s="60" t="n">
         <v>0.2</v>
       </c>
-      <c r="BF3" s="59" t="n">
+      <c r="BF3" s="60" t="n">
         <v>0.2</v>
       </c>
-      <c r="BG3" s="59" t="n">
+      <c r="BG3" s="60" t="n">
         <v>0.2</v>
       </c>
-      <c r="BH3" s="59" t="n">
+      <c r="BH3" s="60" t="n">
         <v>0.1</v>
       </c>
-      <c r="BI3" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ3" s="59" t="n">
+      <c r="BI3" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="BK3" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM3" s="61" t="n">
+      <c r="BK3" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="62" t="n">
         <f aca="false">SUM(AJ3:BL3)</f>
         <v>10.2</v>
       </c>
-      <c r="BN3" s="62" t="n">
+      <c r="BN3" s="63" t="n">
         <f aca="false">MIN($BM3+1,7)</f>
         <v>7</v>
       </c>
-      <c r="BO3" s="63" t="n">
+      <c r="BO3" s="64" t="n">
         <f aca="false">P3</f>
         <v>7</v>
       </c>
-      <c r="BP3" s="64" t="n">
+      <c r="BP3" s="65" t="n">
         <f aca="false">BN3</f>
         <v>7</v>
       </c>
-      <c r="BQ3" s="63" t="n">
+      <c r="BQ3" s="64" t="n">
         <f aca="false">AI3</f>
         <v>7</v>
       </c>
-      <c r="BR3" s="65" t="n">
+      <c r="BR3" s="66" t="n">
         <f aca="false">IF(AND($BO3&gt;=4,$BP3&gt;=4,$BQ3&gt;=4),$BO3*0.1+$BP3*0.7+$BQ3*0.2,MIN($BO3,$BP3,$BQ3))</f>
         <v>7</v>
       </c>
-      <c r="BS3" s="57" t="n">
+      <c r="BS3" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="BT3" s="62" t="n">
+      <c r="BT3" s="63" t="n">
         <f aca="false">MAX(BR3-BS3,1)</f>
         <v>7</v>
       </c>
-      <c r="BV3" s="66"/>
-      <c r="BW3" s="67"/>
+      <c r="BV3" s="67"/>
+      <c r="BW3" s="68"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="68" t="n">
+      <c r="A4" s="69" t="n">
         <f aca="false">A6+1</f>
         <v>1</v>
       </c>
-      <c r="B4" s="68" t="str">
+      <c r="B4" s="69" t="str">
         <f aca="false">'[1]Listado Alumnos'!B5</f>
         <v>GM</v>
       </c>
-      <c r="C4" s="68" t="str">
-        <f aca="false">'[1]Listado Alumnos'!C5</f>
-        <v>21.452.532-1</v>
-      </c>
-      <c r="D4" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="71" t="n">
+      <c r="C4" s="69"/>
+      <c r="D4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="72" t="n">
         <f aca="false">SUMPRODUCT(D4:N4,$D$3:$N$3)</f>
         <v>1</v>
       </c>
-      <c r="P4" s="48" t="n">
+      <c r="P4" s="49" t="n">
         <f aca="false">(1+6*O4)*1</f>
         <v>7</v>
       </c>
-      <c r="Q4" s="72" t="n">
+      <c r="Q4" s="73" t="n">
         <v>45832</v>
       </c>
-      <c r="R4" s="72" t="n">
+      <c r="R4" s="73" t="n">
         <v>45840</v>
       </c>
-      <c r="S4" s="73" t="n">
+      <c r="S4" s="74" t="n">
         <v>15</v>
       </c>
-      <c r="T4" s="74" t="n">
+      <c r="T4" s="75" t="n">
         <v>2</v>
       </c>
-      <c r="U4" s="75" t="n">
+      <c r="U4" s="76" t="n">
         <f aca="false">IF((R4-Q4)&gt;=14,1,IF((R4-Q4)&gt;=10,0.75,IF((R4-Q4)&gt;5,0.5,IF((R4-Q4)&gt;1,0.25,0))))</f>
         <v>0.5</v>
       </c>
-      <c r="V4" s="76" t="n">
+      <c r="V4" s="77" t="n">
         <f aca="false">IF(ISBLANK(S4),0,IF((S4/T4)&gt;=10,1,IF((S4/T4)&gt;=7.5,0.75,IF((S4/T4)&gt;=5,0.5,IF((S4/T4)&gt;=2.5,0.25,0)))))</f>
         <v>0.75</v>
       </c>
-      <c r="W4" s="77" t="n">
+      <c r="W4" s="78" t="n">
         <f aca="false">SUMPRODUCT($U$3:$V$3, U4:V4)</f>
         <v>1.5625</v>
       </c>
-      <c r="X4" s="78" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="78" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="78" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="78" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="80" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="81" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="82" t="n">
+      <c r="X4" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="AF4" s="83" t="n">
+      <c r="AF4" s="84" t="n">
         <f aca="false">W4</f>
         <v>1.5625</v>
       </c>
-      <c r="AG4" s="78" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="57" t="n">
+      <c r="AG4" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="58" t="n">
         <f aca="false">SUM(AB4,AC4,AD4,AE4,AF4)</f>
         <v>4.5625</v>
       </c>
-      <c r="AI4" s="58" t="n">
+      <c r="AI4" s="59" t="n">
         <f aca="false">AH4+1</f>
         <v>5.5625</v>
       </c>
-      <c r="AJ4" s="84" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="84" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO4" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR4" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS4" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV4" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX4" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY4" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA4" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB4" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC4" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD4" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE4" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF4" s="85" t="n">
+      <c r="AJ4" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD4" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE4" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF4" s="86" t="n">
         <v>0</v>
       </c>
-      <c r="BG4" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH4" s="85" t="n">
+      <c r="BG4" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH4" s="86" t="n">
         <v>0</v>
       </c>
-      <c r="BI4" s="86" t="n">
+      <c r="BI4" s="87" t="n">
         <v>0.5</v>
       </c>
-      <c r="BJ4" s="87" t="n">
+      <c r="BJ4" s="88" t="n">
         <v>0</v>
       </c>
-      <c r="BK4" s="87" t="n">
+      <c r="BK4" s="88" t="n">
         <v>0</v>
       </c>
-      <c r="BL4" s="87" t="n">
+      <c r="BL4" s="88" t="n">
         <v>0</v>
       </c>
-      <c r="BM4" s="88" t="n">
+      <c r="BM4" s="89" t="n">
         <f aca="false">SUMPRODUCT($AJ$3:$BL$3, AJ4:BL4)</f>
         <v>5.4</v>
       </c>
-      <c r="BN4" s="62" t="n">
+      <c r="BN4" s="63" t="n">
         <f aca="false">MIN($BM4+1,7)</f>
         <v>6.4</v>
       </c>
-      <c r="BO4" s="89" t="n">
+      <c r="BO4" s="90" t="n">
         <f aca="false">P4</f>
         <v>7</v>
       </c>
-      <c r="BP4" s="90" t="n">
+      <c r="BP4" s="91" t="n">
         <f aca="false">BN4</f>
         <v>6.4</v>
       </c>
-      <c r="BQ4" s="89" t="n">
+      <c r="BQ4" s="90" t="n">
         <f aca="false">AI4</f>
         <v>5.5625</v>
       </c>
-      <c r="BR4" s="91" t="n">
+      <c r="BR4" s="92" t="n">
         <f aca="false">IF(AND($BO4&gt;=4,$BP4&gt;=4,$BQ4&gt;=4),$BO4*0.1+$BP4*0.7+$BQ4*0.2,MIN($BO4,$BP4,$BQ4))</f>
         <v>6.2925</v>
       </c>
-      <c r="BS4" s="92"/>
-      <c r="BT4" s="93" t="n">
+      <c r="BS4" s="93"/>
+      <c r="BT4" s="94" t="n">
         <f aca="false">MAX(BR4-BS4,1)</f>
         <v>6.2925</v>
       </c>
-      <c r="BV4" s="62"/>
-      <c r="BW4" s="94"/>
+      <c r="BV4" s="63"/>
+      <c r="BW4" s="95"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV5" s="62"/>
-      <c r="BW5" s="94"/>
+      <c r="BV5" s="63"/>
+      <c r="BW5" s="95"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BM6" s="95"/>
-      <c r="BV6" s="62"/>
-      <c r="BW6" s="94"/>
+      <c r="E6" s="96"/>
+      <c r="BM6" s="97"/>
+      <c r="BV6" s="63"/>
+      <c r="BW6" s="95"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BQ7" s="96"/>
-      <c r="BV7" s="62"/>
-      <c r="BW7" s="94"/>
+      <c r="E7" s="96"/>
+      <c r="BQ7" s="98"/>
+      <c r="BV7" s="63"/>
+      <c r="BW7" s="95"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BK8" s="96"/>
-      <c r="BV8" s="62"/>
-      <c r="BW8" s="94"/>
+      <c r="BK8" s="98"/>
+      <c r="BV8" s="63"/>
+      <c r="BW8" s="95"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV9" s="62"/>
-      <c r="BW9" s="94"/>
+      <c r="BV9" s="63"/>
+      <c r="BW9" s="95"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV10" s="62"/>
-      <c r="BW10" s="94"/>
+      <c r="BV10" s="63"/>
+      <c r="BW10" s="95"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV11" s="62"/>
-      <c r="BW11" s="94"/>
+      <c r="BV11" s="63"/>
+      <c r="BW11" s="95"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV12" s="62"/>
-      <c r="BW12" s="94"/>
+      <c r="BV12" s="63"/>
+      <c r="BW12" s="95"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV13" s="97"/>
-      <c r="BW13" s="98"/>
+      <c r="BV13" s="99"/>
+      <c r="BW13" s="100"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV14" s="62"/>
-      <c r="BW14" s="94"/>
+      <c r="BV14" s="63"/>
+      <c r="BW14" s="95"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV15" s="62"/>
-      <c r="BW15" s="94"/>
+      <c r="BV15" s="63"/>
+      <c r="BW15" s="95"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV16" s="99"/>
-      <c r="BW16" s="100"/>
+      <c r="BV16" s="101"/>
+      <c r="BW16" s="102"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV17" s="62"/>
-      <c r="BW17" s="94"/>
+      <c r="BV17" s="63"/>
+      <c r="BW17" s="95"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV18" s="62"/>
-      <c r="BW18" s="94"/>
+      <c r="BV18" s="63"/>
+      <c r="BW18" s="95"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV19" s="62"/>
-      <c r="BW19" s="94"/>
+      <c r="BV19" s="63"/>
+      <c r="BW19" s="95"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV20" s="62"/>
-      <c r="BW20" s="94"/>
+      <c r="BV20" s="63"/>
+      <c r="BW20" s="95"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV21" s="99"/>
-      <c r="BW21" s="100"/>
+      <c r="BV21" s="101"/>
+      <c r="BW21" s="102"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV22" s="101"/>
-      <c r="BW22" s="94"/>
+      <c r="BV22" s="103"/>
+      <c r="BW22" s="95"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV23" s="102"/>
-      <c r="BW23" s="103"/>
+      <c r="BV23" s="104"/>
+      <c r="BW23" s="105"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV24" s="104"/>
-      <c r="BW24" s="105"/>
+      <c r="BV24" s="106"/>
+      <c r="BW24" s="107"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV25" s="106"/>
-      <c r="BW25" s="107"/>
+      <c r="BV25" s="108"/>
+      <c r="BW25" s="109"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV26" s="102"/>
-      <c r="BW26" s="103"/>
+      <c r="BV26" s="104"/>
+      <c r="BW26" s="105"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV27" s="62"/>
-      <c r="BW27" s="94"/>
+      <c r="BV27" s="63"/>
+      <c r="BW27" s="95"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV28" s="62"/>
-      <c r="BW28" s="94"/>
+      <c r="BV28" s="63"/>
+      <c r="BW28" s="95"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV29" s="62"/>
-      <c r="BW29" s="94"/>
+      <c r="BV29" s="63"/>
+      <c r="BW29" s="95"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV30" s="102"/>
-      <c r="BW30" s="103"/>
+      <c r="BV30" s="104"/>
+      <c r="BW30" s="105"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV31" s="101"/>
-      <c r="BW31" s="94"/>
+      <c r="BV31" s="103"/>
+      <c r="BW31" s="95"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV32" s="62"/>
-      <c r="BW32" s="94"/>
+      <c r="BV32" s="63"/>
+      <c r="BW32" s="95"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV33" s="62"/>
-      <c r="BW33" s="94"/>
+      <c r="BV33" s="63"/>
+      <c r="BW33" s="95"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV34" s="108"/>
-      <c r="BW34" s="109"/>
+      <c r="BV34" s="110"/>
+      <c r="BW34" s="111"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV35" s="102"/>
-      <c r="BW35" s="103"/>
+      <c r="BV35" s="104"/>
+      <c r="BW35" s="105"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV36" s="102"/>
-      <c r="BW36" s="103"/>
+      <c r="BV36" s="104"/>
+      <c r="BW36" s="105"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV37" s="62"/>
-      <c r="BW37" s="94"/>
+      <c r="BV37" s="63"/>
+      <c r="BW37" s="95"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV38" s="62"/>
-      <c r="BW38" s="94"/>
+      <c r="BV38" s="63"/>
+      <c r="BW38" s="95"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV39" s="62"/>
-      <c r="BW39" s="94"/>
+      <c r="BV39" s="63"/>
+      <c r="BW39" s="95"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV40" s="101"/>
-      <c r="BW40" s="94"/>
+      <c r="BV40" s="103"/>
+      <c r="BW40" s="95"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV41" s="102"/>
-      <c r="BW41" s="103"/>
+      <c r="BV41" s="104"/>
+      <c r="BW41" s="105"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV42" s="110"/>
-      <c r="BW42" s="111"/>
+      <c r="BV42" s="112"/>
+      <c r="BW42" s="113"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV43" s="112"/>
-      <c r="BW43" s="107"/>
+      <c r="BV43" s="114"/>
+      <c r="BW43" s="109"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV44" s="62"/>
-      <c r="BW44" s="94"/>
+      <c r="BV44" s="63"/>
+      <c r="BW44" s="95"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV45" s="62"/>
-      <c r="BW45" s="94"/>
+      <c r="BV45" s="63"/>
+      <c r="BW45" s="95"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV46" s="102"/>
-      <c r="BW46" s="103"/>
+      <c r="BV46" s="104"/>
+      <c r="BW46" s="105"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV47" s="62"/>
-      <c r="BW47" s="94"/>
+      <c r="BV47" s="63"/>
+      <c r="BW47" s="95"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV48" s="62"/>
-      <c r="BW48" s="94"/>
+      <c r="BV48" s="63"/>
+      <c r="BW48" s="95"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV49" s="62"/>
-      <c r="BW49" s="94"/>
+      <c r="BV49" s="63"/>
+      <c r="BW49" s="95"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV50" s="62"/>
-      <c r="BW50" s="94"/>
+      <c r="BV50" s="63"/>
+      <c r="BW50" s="95"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV51" s="62"/>
-      <c r="BW51" s="94"/>
+      <c r="BV51" s="63"/>
+      <c r="BW51" s="95"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV52" s="102"/>
-      <c r="BW52" s="103"/>
+      <c r="BV52" s="104"/>
+      <c r="BW52" s="105"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV53" s="102"/>
-      <c r="BW53" s="103"/>
+      <c r="BV53" s="104"/>
+      <c r="BW53" s="105"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV54" s="62"/>
-      <c r="BW54" s="94"/>
+      <c r="BV54" s="63"/>
+      <c r="BW54" s="95"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV55" s="102"/>
-      <c r="BW55" s="103"/>
+      <c r="BV55" s="104"/>
+      <c r="BW55" s="105"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV56" s="102"/>
-      <c r="BW56" s="103"/>
+      <c r="BV56" s="104"/>
+      <c r="BW56" s="105"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV57" s="62"/>
-      <c r="BW57" s="94"/>
+      <c r="BV57" s="63"/>
+      <c r="BW57" s="95"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV58" s="102"/>
-      <c r="BW58" s="103"/>
+      <c r="BV58" s="104"/>
+      <c r="BW58" s="105"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV59" s="62"/>
-      <c r="BW59" s="94"/>
+      <c r="BV59" s="63"/>
+      <c r="BW59" s="95"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV60" s="62"/>
-      <c r="BW60" s="94"/>
+      <c r="BV60" s="63"/>
+      <c r="BW60" s="95"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV61" s="62"/>
-      <c r="BW61" s="94"/>
+      <c r="BV61" s="63"/>
+      <c r="BW61" s="95"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV62" s="62"/>
-      <c r="BW62" s="94"/>
+      <c r="BV62" s="63"/>
+      <c r="BW62" s="95"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV63" s="102"/>
-      <c r="BW63" s="103"/>
+      <c r="BV63" s="104"/>
+      <c r="BW63" s="105"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV64" s="102"/>
-      <c r="BW64" s="103"/>
+      <c r="BV64" s="104"/>
+      <c r="BW64" s="105"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV65" s="102"/>
-      <c r="BW65" s="103"/>
+      <c r="BV65" s="104"/>
+      <c r="BW65" s="105"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="BV66" s="102"/>
-      <c r="BW66" s="103"/>
+      <c r="BV66" s="104"/>
+      <c r="BW66" s="105"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3600,7 +3611,7 @@
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="true" showErrorMessage="true" showInputMessage="false" sqref="Q4:R4" type="custom">
-      <formula1>OR(NOT(ISERROR(DATEVALUE(#REF!))), AND(ISNUMBER(#REF!), LEFT(CELL("format", #REF!))="D"))</formula1>
+      <formula1>OR(NOT(ISERROR(DATEVALUE(#ref!))), AND(ISNUMBER(#ref!), LEFT(CELL("format", #ref!))="D"))</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
